--- a/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 16,59</t>
+          <t>-1,0; 17,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 19,76</t>
+          <t>3,54; 19,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,99</t>
+          <t>-0,51; 1,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 43,73</t>
+          <t>-2,24; 44,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 38,97</t>
+          <t>6,08; 37,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,03</t>
+          <t>-0,52; 2,01</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 22,9</t>
+          <t>10,78; 23,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 23,46</t>
+          <t>11,85; 23,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 20,0</t>
+          <t>7,81; 20,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,84</t>
+          <t>-0,83; 4,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,46; 54,86</t>
+          <t>22,23; 56,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 48,29</t>
+          <t>20,71; 48,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,23; 37,96</t>
+          <t>13,59; 38,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 4,06</t>
+          <t>-0,84; 4,48</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,25; 30,21</t>
+          <t>15,61; 30,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 17,3</t>
+          <t>1,53; 16,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 16,93</t>
+          <t>2,04; 17,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 0,55</t>
+          <t>-3,88; 0,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,61; 73,78</t>
+          <t>31,63; 77,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 31,59</t>
+          <t>2,21; 29,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 35,3</t>
+          <t>3,41; 36,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,57</t>
+          <t>-3,96; 0,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 25,12</t>
+          <t>10,39; 24,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 19,33</t>
+          <t>8,41; 19,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 19,97</t>
+          <t>6,22; 20,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; -2,34</t>
+          <t>-18,18; -2,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,76; 53,66</t>
+          <t>19,01; 52,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 34,48</t>
+          <t>13,57; 34,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,81; 37,03</t>
+          <t>10,16; 39,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -2,38</t>
+          <t>-18,5; -2,63</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,22; 25,0</t>
+          <t>5,05; 23,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 34,89</t>
+          <t>18,89; 36,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 18,6</t>
+          <t>-1,0; 18,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,94</t>
+          <t>-0,94; 0,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 59,99</t>
+          <t>9,82; 54,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,09; 71,31</t>
+          <t>31,75; 75,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 40,35</t>
+          <t>-2,07; 38,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,95</t>
+          <t>-0,94; 0,95</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 22,59</t>
+          <t>4,94; 22,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,65; 22,47</t>
+          <t>7,66; 22,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 19,97</t>
+          <t>1,89; 19,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,08</t>
+          <t>-1,88; 2,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,96; 50,58</t>
+          <t>9,08; 48,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 39,38</t>
+          <t>11,27; 39,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 47,35</t>
+          <t>3,34; 46,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,2</t>
+          <t>-1,91; 3,01</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,55; 20,66</t>
+          <t>9,38; 20,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,71</t>
+          <t>4,91; 15,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 16,68</t>
+          <t>5,4; 17,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,77</t>
+          <t>-2,41; 1,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,92; 49,54</t>
+          <t>19,6; 49,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 28,8</t>
+          <t>7,94; 29,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 40,59</t>
+          <t>11,68; 42,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,82</t>
+          <t>-2,45; 1,69</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 16,34</t>
+          <t>6,15; 16,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 16,79</t>
+          <t>6,69; 16,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 15,22</t>
+          <t>5,38; 16,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 2,23</t>
+          <t>-2,82; 2,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,92; 34,71</t>
+          <t>11,37; 33,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,36; 38,06</t>
+          <t>13,75; 37,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,75; 32,75</t>
+          <t>10,37; 34,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,43</t>
+          <t>-2,97; 2,58</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,77; 17,43</t>
+          <t>12,44; 17,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,21; 15,86</t>
+          <t>11,25; 16,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,58</t>
+          <t>8,81; 13,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,29</t>
+          <t>-2,24; 0,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,23; 38,34</t>
+          <t>25,89; 37,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,8; 29,4</t>
+          <t>19,69; 29,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,48; 27,46</t>
+          <t>16,8; 27,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,3</t>
+          <t>-2,3; 0,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,62</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>8,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 17,13</t>
+          <t>-0,51; 16,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,14; 24,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 19,04</t>
+          <t>3,11; 19,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,97</t>
+          <t>0,18; 16,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 44,57</t>
+          <t>-1,89; 44,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,32; 44,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 37,86</t>
+          <t>5,44; 40,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,01</t>
+          <t>0,19; 30,58</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
+          <t>19,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 23,2</t>
+          <t>13,24; 26,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 23,88</t>
+          <t>11,79; 24,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 20,19</t>
+          <t>7,89; 20,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 4,22</t>
+          <t>-1,48; 11,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,23; 56,49</t>
+          <t>30,73; 72,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 48,54</t>
+          <t>21,58; 50,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,59; 38,24</t>
+          <t>13,24; 38,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,48</t>
+          <t>-4,29; 39,91</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,12</t>
+          <t>23,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>8,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>10,88%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 30,58</t>
+          <t>16,15; 31,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 16,49</t>
+          <t>0,9; 15,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 17,55</t>
+          <t>1,7; 16,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,54</t>
+          <t>-3,05; 11,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,63; 77,02</t>
+          <t>33,81; 79,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 29,66</t>
+          <t>1,33; 28,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 36,84</t>
+          <t>3,07; 36,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,56</t>
+          <t>-6,0; 33,42</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,58</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,97</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,09</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,8</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>-5,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 24,49</t>
+          <t>10,95; 25,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 19,27</t>
+          <t>5,76; 19,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 20,36</t>
+          <t>7,28; 21,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -2,58</t>
+          <t>-21,39; 8,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 52,76</t>
+          <t>20,16; 55,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 34,04</t>
+          <t>9,5; 38,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 39,1</t>
+          <t>12,51; 42,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -2,63</t>
+          <t>-45,63; 22,14</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,94</t>
+          <t>26,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>-4,91%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 23,44</t>
+          <t>3,71; 23,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 36,03</t>
+          <t>17,87; 36,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 18,21</t>
+          <t>-0,84; 18,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,94</t>
+          <t>-7,08; 4,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 54,33</t>
+          <t>8,14; 59,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,75; 75,32</t>
+          <t>29,82; 77,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 38,82</t>
+          <t>-1,59; 39,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,95</t>
+          <t>-55,56; 53,95</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,03</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>14,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 22,61</t>
+          <t>4,49; 22,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 22,81</t>
+          <t>7,38; 22,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 19,83</t>
+          <t>2,43; 20,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,9</t>
+          <t>-6,07; 8,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,08; 48,74</t>
+          <t>7,91; 47,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,27; 39,27</t>
+          <t>11,05; 39,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,34; 46,04</t>
+          <t>4,95; 49,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,01</t>
+          <t>-11,41; 19,59</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>11,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>22,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>102,52%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,38; 20,57</t>
+          <t>11,3; 22,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 15,94</t>
+          <t>4,33; 15,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 17,03</t>
+          <t>5,65; 17,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,6</t>
+          <t>3,46; 52,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>19,6; 49,13</t>
+          <t>25,89; 58,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 29,32</t>
+          <t>7,07; 28,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,68; 42,51</t>
+          <t>12,55; 44,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,69</t>
+          <t>14,26; 275,82</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,27</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>88,24%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,15; 16,07</t>
+          <t>6,88; 16,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 16,41</t>
+          <t>8,17; 17,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,38; 16,07</t>
+          <t>5,79; 16,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,36</t>
+          <t>9,97; 33,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,37; 33,76</t>
+          <t>14,08; 38,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,75; 37,6</t>
+          <t>17,56; 43,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,37; 34,34</t>
+          <t>11,36; 35,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,58</t>
+          <t>32,72; 348,24</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,99</t>
+          <t>16,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,52</t>
+          <t>13,69</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,27</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,8%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,44; 17,36</t>
+          <t>13,65; 18,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,25; 16,04</t>
+          <t>11,34; 16,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,62</t>
+          <t>9,13; 13,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,26</t>
+          <t>4,67; 23,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,89; 37,94</t>
+          <t>29,81; 42,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,69; 29,67</t>
+          <t>20,6; 30,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,8; 27,37</t>
+          <t>17,98; 29,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,27</t>
+          <t>13,69; 87,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 16,84</t>
+          <t>-1,12; 16,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 24,71</t>
+          <t>9,11; 24,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 19,56</t>
+          <t>3,55; 19,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 16,52</t>
+          <t>0,43; 16,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 44,44</t>
+          <t>-2,4; 44,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 44,21</t>
+          <t>14,2; 43,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 40,66</t>
+          <t>5,85; 40,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 30,58</t>
+          <t>0,61; 30,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 26,26</t>
+          <t>13,38; 25,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,79; 24,2</t>
+          <t>10,6; 23,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 20,08</t>
+          <t>6,91; 19,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 11,31</t>
+          <t>-1,17; 10,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 72,02</t>
+          <t>30,78; 70,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 50,84</t>
+          <t>19,92; 48,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 38,75</t>
+          <t>11,82; 38,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 39,91</t>
+          <t>-3,24; 36,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 31,1</t>
+          <t>16,27; 31,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 15,58</t>
+          <t>1,36; 15,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,92</t>
+          <t>0,63; 16,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 11,64</t>
+          <t>-2,86; 11,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,81; 79,47</t>
+          <t>33,47; 79,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 28,2</t>
+          <t>2,23; 29,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 36,17</t>
+          <t>1,15; 33,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 33,42</t>
+          <t>-5,97; 32,95</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 25,45</t>
+          <t>11,35; 25,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 19,91</t>
+          <t>5,4; 20,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,28; 21,63</t>
+          <t>7,08; 20,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 8,85</t>
+          <t>-19,12; 8,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,16; 55,32</t>
+          <t>20,18; 54,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 38,39</t>
+          <t>9,35; 39,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 42,15</t>
+          <t>11,9; 40,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 22,14</t>
+          <t>-43,91; 22,62</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 23,14</t>
+          <t>3,85; 23,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 36,84</t>
+          <t>17,25; 35,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 18,31</t>
+          <t>0,0; 17,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,28</t>
+          <t>-6,54; 3,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 59,65</t>
+          <t>8,11; 62,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,82; 77,68</t>
+          <t>29,69; 75,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 39,78</t>
+          <t>-0,17; 39,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 53,95</t>
+          <t>-51,05; 46,22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 22,0</t>
+          <t>5,09; 22,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 22,6</t>
+          <t>6,63; 22,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,43; 20,16</t>
+          <t>3,26; 20,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 8,95</t>
+          <t>-5,88; 9,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 47,68</t>
+          <t>9,37; 49,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 39,05</t>
+          <t>9,84; 38,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 49,93</t>
+          <t>6,07; 50,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 19,59</t>
+          <t>-10,68; 21,81</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 22,21</t>
+          <t>11,37; 23,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 15,47</t>
+          <t>4,37; 15,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 17,36</t>
+          <t>6,02; 16,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 52,09</t>
+          <t>3,28; 48,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,89; 58,13</t>
+          <t>26,28; 60,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 28,12</t>
+          <t>7,5; 29,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,55; 44,16</t>
+          <t>12,98; 43,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 275,82</t>
+          <t>14,11; 279,41</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,88; 16,83</t>
+          <t>7,24; 17,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,17; 17,87</t>
+          <t>6,88; 17,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,79; 16,28</t>
+          <t>5,49; 15,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 33,52</t>
+          <t>9,93; 32,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,08; 38,2</t>
+          <t>14,72; 40,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,56; 43,74</t>
+          <t>15,04; 43,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,36; 35,63</t>
+          <t>10,94; 34,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,72; 348,24</t>
+          <t>32,77; 323,41</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,65; 18,43</t>
+          <t>13,69; 18,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,34; 16,19</t>
+          <t>11,54; 16,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,94</t>
+          <t>9,3; 13,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 23,06</t>
+          <t>4,45; 22,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,81; 42,9</t>
+          <t>29,96; 42,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,6; 30,89</t>
+          <t>20,88; 30,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,98; 29,03</t>
+          <t>18,12; 28,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,69; 87,19</t>
+          <t>12,84; 78,75</t>
         </is>
       </c>
     </row>
